--- a/Test excel.xlsx
+++ b/Test excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Team\Corporate APN Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>MTX Name</t>
   </si>
@@ -35,16 +35,10 @@
     <t>HQ</t>
   </si>
   <si>
-    <t>Secondary MTX</t>
-  </si>
-  <si>
     <t>TG1</t>
   </si>
   <si>
     <t>TG2</t>
-  </si>
-  <si>
-    <t>Secondary MTX Number</t>
   </si>
   <si>
     <t>RMD1</t>
@@ -401,35 +395,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -437,170 +423,94 @@
         <f>"05"</f>
         <v>05</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <f>"05"</f>
-        <v>05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>"06"</f>
         <v>06</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f>"06"</f>
-        <v>06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>"07"</f>
         <v>07</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f>"07"</f>
-        <v>07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>"08"</f>
         <v>08</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f>"08"</f>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="str">
         <f>"09"</f>
         <v>09</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f>"09"</f>
-        <v>09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f>"10"</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f>"11"</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f>"12"</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f>"13"</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f>"14"</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Test excel.xlsx
+++ b/Test excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MTX Name</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>ggsnlab</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Corporate APNs</t>
   </si>
 </sst>
 </file>
@@ -395,27 +401,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -424,7 +438,7 @@
         <v>05</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -433,7 +447,7 @@
         <v>06</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -442,7 +456,7 @@
         <v>07</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -451,7 +465,7 @@
         <v>08</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -460,7 +474,7 @@
         <v>09</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -469,7 +483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -478,7 +492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -487,7 +501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -496,7 +510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -505,7 +519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
